--- a/IOS_PROJECT3/wwwroot/RegFiles/initReg.xlsx
+++ b/IOS_PROJECT3/wwwroot/RegFiles/initReg.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1539CF8A-AD7F-4B69-A048-A7554903A1B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Visual Studio Projects\IOS_PROJECT3-master\IOS_PROJECT3\wwwroot\RegFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24152A50-49A3-4680-85F6-954F032EEB33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2329" yWindow="826" windowWidth="18031" windowHeight="9392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,13 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
-  <si>
-    <t>Товарищ Студент№1</t>
-  </si>
-  <si>
-    <t>stud1@post.p</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Test_123</t>
   </si>
@@ -39,54 +38,15 @@
     <t>Student</t>
   </si>
   <si>
-    <t>Товарищ Студент№2</t>
-  </si>
-  <si>
-    <t>stud2@post.p</t>
-  </si>
-  <si>
     <t>Test_124</t>
   </si>
   <si>
-    <t>Товарищ Студент№3</t>
-  </si>
-  <si>
-    <t>stud3@post.p</t>
-  </si>
-  <si>
     <t>Test_125</t>
   </si>
   <si>
-    <t>Товарищ Студент№4</t>
-  </si>
-  <si>
-    <t>stud4@post.p</t>
-  </si>
-  <si>
     <t>Test_126</t>
   </si>
   <si>
-    <t>Товарищ Студент№5</t>
-  </si>
-  <si>
-    <t>stud5@post.p</t>
-  </si>
-  <si>
-    <t>Test_127</t>
-  </si>
-  <si>
-    <t>Товарищ Студент№6</t>
-  </si>
-  <si>
-    <t>stud6@post.p</t>
-  </si>
-  <si>
-    <t>Test_128</t>
-  </si>
-  <si>
-    <t>Товарищ Препод№1</t>
-  </si>
-  <si>
     <t>prep1@post.p</t>
   </si>
   <si>
@@ -96,36 +56,12 @@
     <t>Teacher</t>
   </si>
   <si>
-    <t>Товарищ Препод№2</t>
-  </si>
-  <si>
     <t>prep2@post.p</t>
   </si>
   <si>
     <t>Test_130</t>
   </si>
   <si>
-    <t>Товарищ Препод№3</t>
-  </si>
-  <si>
-    <t>prep3@post.p</t>
-  </si>
-  <si>
-    <t>Test_131</t>
-  </si>
-  <si>
-    <t>Товарищ Препод№4</t>
-  </si>
-  <si>
-    <t>prep4@post.p</t>
-  </si>
-  <si>
-    <t>Test_132</t>
-  </si>
-  <si>
-    <t>Товарищ Манагер№1</t>
-  </si>
-  <si>
     <t>manager1@post.p</t>
   </si>
   <si>
@@ -135,32 +71,74 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>Товарищ Манагер№2</t>
-  </si>
-  <si>
-    <t>manager2@post.p</t>
-  </si>
-  <si>
-    <t>Test_134</t>
-  </si>
-  <si>
-    <t>Юрий Демыдко</t>
-  </si>
-  <si>
-    <t>yuridemydko@icloud.com</t>
-  </si>
-  <si>
-    <t>YD_420</t>
-  </si>
-  <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>Пономаренко Ирина</t>
+  </si>
+  <si>
+    <t>Демыдко Юрий</t>
+  </si>
+  <si>
+    <t>Роганов Максим</t>
+  </si>
+  <si>
+    <t>Щербатов Вадим</t>
+  </si>
+  <si>
+    <t>Безруков Алексей</t>
+  </si>
+  <si>
+    <t>Фролова Наталья</t>
+  </si>
+  <si>
+    <t>Петрова Татьяна</t>
+  </si>
+  <si>
+    <t>yuridemydko</t>
+  </si>
+  <si>
+    <t>Юрий Дедко</t>
+  </si>
+  <si>
+    <t>YDed_420</t>
+  </si>
+  <si>
+    <t>pupkin@outlook.com</t>
+  </si>
+  <si>
+    <t>privet@mail.com</t>
+  </si>
+  <si>
+    <t>YDSkfd_7643</t>
+  </si>
+  <si>
+    <t>Putin</t>
+  </si>
+  <si>
+    <t>ВВ</t>
+  </si>
+  <si>
+    <t>fdsfАВsdf_54</t>
+  </si>
+  <si>
+    <t>sherbatov.vadim@mmmm.ru</t>
+  </si>
+  <si>
+    <t>irapon@mmmm.ru</t>
+  </si>
+  <si>
+    <t>roganov_maksim@mmmm.ru</t>
+  </si>
+  <si>
+    <t>ura.dem@mmmm.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,16 +172,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -220,9 +201,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -260,7 +241,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -366,7 +347,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -516,218 +497,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{F0B31AEC-0DB9-4304-8788-4EC7BD2BFFF3}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{18D8BB68-780E-4E75-96EF-48C47B75EC0D}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{FB52BF83-867B-4417-AF0B-3972F0B29FD3}"/>
-    <hyperlink ref="B4:B6" r:id="rId4" display="stud3@post.p" xr:uid="{2211A2BE-E03D-41D3-AC8F-92EDAD4B0E3E}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{E1162A22-EE41-487A-BA97-E15E3B4B74B2}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{F96DBDA8-04A5-4D27-8B17-A6474B392EBA}"/>
-    <hyperlink ref="B6" r:id="rId7" xr:uid="{ADB3AE1E-D1DC-4727-AF64-DCE11CF44683}"/>
-    <hyperlink ref="B7" r:id="rId8" xr:uid="{601CC240-FE7D-44FB-A379-EDE3ABB2AB5D}"/>
-    <hyperlink ref="B8" r:id="rId9" xr:uid="{F780C05B-99B4-4447-844F-4A5400C02B35}"/>
-    <hyperlink ref="B9" r:id="rId10" xr:uid="{FD9FE152-C90B-45D1-B3E1-4B3B2F735B79}"/>
-    <hyperlink ref="B10" r:id="rId11" xr:uid="{10FF6135-3D92-4810-AFCE-0ED712F4D9B2}"/>
-    <hyperlink ref="B11" r:id="rId12" xr:uid="{A57A5AA3-272D-4475-9CC8-003A78F8D380}"/>
-    <hyperlink ref="B12" r:id="rId13" xr:uid="{F8856171-51B3-408D-9ACA-B5CB60CB38BF}"/>
-    <hyperlink ref="B13" r:id="rId14" xr:uid="{89F39FAA-5E90-4E9A-AC3A-175054135B2A}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{FB52BF83-867B-4417-AF0B-3972F0B29FD3}"/>
+    <hyperlink ref="B3:B4" r:id="rId4" display="stud3@post.p" xr:uid="{2211A2BE-E03D-41D3-AC8F-92EDAD4B0E3E}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{E1162A22-EE41-487A-BA97-E15E3B4B74B2}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{601CC240-FE7D-44FB-A379-EDE3ABB2AB5D}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{F780C05B-99B4-4447-844F-4A5400C02B35}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{A57A5AA3-272D-4475-9CC8-003A78F8D380}"/>
+    <hyperlink ref="B8" r:id="rId9" display="yuridemydko@icloud.com" xr:uid="{89F39FAA-5E90-4E9A-AC3A-175054135B2A}"/>
+    <hyperlink ref="B9" r:id="rId10" xr:uid="{782A6B61-F687-46E0-BCA4-18849656CDBD}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{A708BCDC-1A63-4DCA-95AB-1DA091A60892}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
